--- a/hw/bom/IF-MkV Costed BOM.xlsx
+++ b/hw/bom/IF-MkV Costed BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aesil\proj\mukob-hw\MuKOB\hw\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BD7994-A2B1-4A7B-A2BE-7746F483A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C47C542-82C0-4F84-B58C-C2ABF1915796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="143" yWindow="660" windowWidth="22710" windowHeight="13448" xr2:uid="{2316D386-27D9-499A-9097-CEAB069870CA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{2316D386-27D9-499A-9097-CEAB069870CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,19 +404,19 @@
     <t>2x20 Socket Header</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'Full'  (Non-Rpi) &gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>'LoopPwr' (Non-Rpi) &gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>'Minimum' (Non-Rpi) &gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>Base + 1/8" Key Jack + Sndr Pwr + LED(VisSndr)</t>
   </si>
   <si>
     <t>Base Only (No: Key Jack, Power, LED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Full'  (Non-RPi) &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>'LoopPwr' (Non-RPi) &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>'Minimum' (Non-RPi) &gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -969,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -979,7 +979,7 @@
     <col min="2" max="2" width="7.3984375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.1328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="33.9296875" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.46484375" style="2" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.86328125" customWidth="1"/>
     <col min="8" max="8" width="8.265625" style="1" customWidth="1"/>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="18">
         <v>0</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="N6" s="14">
         <f t="shared" si="2"/>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="14">
@@ -1905,14 +1905,14 @@
         <v>3</v>
       </c>
       <c r="H17" s="14">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I17" s="18">
         <v>3</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="14">
@@ -1959,14 +1959,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="14">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I18" s="18">
         <v>1</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="14">
@@ -2067,14 +2067,14 @@
         <v>1</v>
       </c>
       <c r="H20" s="14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="18">
         <v>1</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="14">
@@ -2121,14 +2121,14 @@
         <v>1</v>
       </c>
       <c r="H21" s="14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" s="18">
         <v>1</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="14">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="R21" s="14">
         <f t="shared" si="4"/>
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21">
@@ -2891,14 +2891,14 @@
         <v>1</v>
       </c>
       <c r="H35" s="14">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I35" s="18">
         <v>1</v>
       </c>
       <c r="J35" s="19">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="14">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="R35" s="14">
         <f t="shared" si="4"/>
-        <v>-0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35">
@@ -3113,14 +3113,14 @@
         <v>1</v>
       </c>
       <c r="H39" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="18">
         <v>1</v>
       </c>
       <c r="J39" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="14">
@@ -3310,47 +3310,47 @@
         <v>62</v>
       </c>
       <c r="I44">
-        <f>SUM(I2:I43)</f>
+        <f t="shared" ref="I44:S44" si="6">SUM(I2:I43)</f>
         <v>51</v>
       </c>
       <c r="J44" s="5">
-        <f>SUM(J2:J43)</f>
-        <v>22.45</v>
+        <f t="shared" si="6"/>
+        <v>23.82</v>
       </c>
       <c r="K44">
-        <f>SUM(K2:K43)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L44" s="20">
-        <f>SUM(L2:L43)</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="M44">
-        <f>SUM(M2:M43)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N44" s="20">
-        <f>SUM(N2:N43)</f>
-        <v>2.4500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O44">
-        <f>SUM(O2:O43)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P44" s="20">
-        <f>SUM(P2:P43)</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="Q44">
-        <f>SUM(Q2:Q43)</f>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
       <c r="R44" s="20">
-        <f>SUM(R2:R43)</f>
-        <v>-4.53</v>
+        <f t="shared" si="6"/>
+        <v>-4.68</v>
       </c>
       <c r="S44" s="17">
-        <f>SUM(S2:S43)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T44">
@@ -3361,14 +3361,14 @@
     <row r="45" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="46" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E46" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H46" s="7">
         <f>$J44+$L44+$N44+$P44</f>
-        <v>26.599999999999998</v>
+        <v>28.07</v>
       </c>
       <c r="J46" s="3"/>
       <c r="N46" s="3"/>
@@ -3377,14 +3377,14 @@
     <row r="47" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E48" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H48" s="8">
         <f>$J44+$N44</f>
-        <v>24.9</v>
+        <v>26.37</v>
       </c>
       <c r="J48" s="3"/>
       <c r="N48" s="3"/>
@@ -3392,20 +3392,20 @@
     <row r="49" spans="5:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="50" spans="5:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H50" s="21">
         <f>$J44</f>
-        <v>22.45</v>
+        <v>23.82</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="57" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LMuKOB IF-Mk V  -  Costed BOM (Options Broken Out)</oddHeader>
     <oddFooter>&amp;LEd Silky&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
